--- a/data/yeong/총량/만봉천_2020.xlsx
+++ b/data/yeong/총량/만봉천_2020.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\사업관련\환경AI\모듈작업\water-quality\data\yeong\총량\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="114">
   <si>
     <t>dt</t>
   </si>
@@ -354,89 +361,37 @@
   </si>
   <si>
     <t>20200527</t>
-  </si>
-  <si>
-    <t>2020-06-08 12:00</t>
-  </si>
-  <si>
-    <t>20200603</t>
-  </si>
-  <si>
-    <t>2020-06-16 12:00</t>
-  </si>
-  <si>
-    <t>20200610</t>
-  </si>
-  <si>
-    <t>2020-06-24 12:00</t>
-  </si>
-  <si>
-    <t>20200617</t>
-  </si>
-  <si>
-    <t>2020-07-10 12:00</t>
-  </si>
-  <si>
-    <t>20200709</t>
-  </si>
-  <si>
-    <t>2020-07-20 12:00</t>
-  </si>
-  <si>
-    <t>20200721</t>
-  </si>
-  <si>
-    <t>2020-08-15 12:00</t>
-  </si>
-  <si>
-    <t>20200820</t>
-  </si>
-  <si>
-    <t>2020-09-06 12:00</t>
-  </si>
-  <si>
-    <t>20200904</t>
-  </si>
-  <si>
-    <t>2020-09-12 12:00</t>
-  </si>
-  <si>
-    <t>20200910</t>
-  </si>
-  <si>
-    <t>2020-09-18 12:00</t>
-  </si>
-  <si>
-    <t>20200916</t>
-  </si>
-  <si>
-    <t>2020-09-24 12:00</t>
-  </si>
-  <si>
-    <t>20200923</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.000000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -454,7 +409,13 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -462,16 +423,24 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -480,10 +449,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -729,83 +698,86 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:BJ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD29"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.78" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.78" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.89" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.56" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.56" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.56" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.56" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.56" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.78" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.75" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.56" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.22" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.56" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.33" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.56" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.33" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.33" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.56" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.33" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.67" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="8" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.89" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.11" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.67" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.67" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="7.89" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.11" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.44" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9.78" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8.89" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.11" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.56" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.89" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.89" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.11" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.89" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.22" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.56" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.44" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.67" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15.22" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.22" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="12.44" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.67" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.625" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="14" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14.33" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13.44" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -993,7 +965,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -1070,16 +1042,16 @@
         <v>75</v>
       </c>
       <c r="AC2" s="3">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="AD2" s="3">
         <v>4.5</v>
       </c>
       <c r="AE2" s="3">
-        <v>7.9000000000000004</v>
+        <v>7.9</v>
       </c>
       <c r="AF2" s="3">
-        <v>13.800000000000001</v>
+        <v>13.8</v>
       </c>
       <c r="AG2" s="3">
         <v>1.5</v>
@@ -1088,40 +1060,40 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="AI2" s="3">
-        <v>6.5999999999999996</v>
+        <v>6.6</v>
       </c>
       <c r="AJ2">
         <v>261</v>
       </c>
       <c r="AK2" s="4">
-        <v>2.9399999999999999</v>
+        <v>2.94</v>
       </c>
       <c r="AL2" s="5">
         <v>2.903</v>
       </c>
       <c r="AM2" s="4">
-        <v>2.6899999999999999</v>
+        <v>2.69</v>
       </c>
       <c r="AN2" s="5">
-        <v>0.010999999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AO2" s="5">
-        <v>0.051999999999999998</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="AP2" s="4">
-        <v>0.029999999999999999</v>
+        <v>0.03</v>
       </c>
       <c r="AQ2" s="5">
-        <v>0.024</v>
+        <v>2.4E-2</v>
       </c>
       <c r="AR2" s="3">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="AS2" s="3">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -1201,19 +1173,19 @@
         <v>0.79700000000000004</v>
       </c>
       <c r="AD3" s="3">
-        <v>6.7999999999999998</v>
+        <v>6.8</v>
       </c>
       <c r="AE3">
         <v>7</v>
       </c>
       <c r="AF3" s="3">
-        <v>18.199999999999999</v>
+        <v>18.2</v>
       </c>
       <c r="AG3">
         <v>2</v>
       </c>
       <c r="AH3" s="3">
-        <v>6.2999999999999998</v>
+        <v>6.3</v>
       </c>
       <c r="AI3" s="3">
         <v>6.5</v>
@@ -1231,16 +1203,16 @@
         <v>2.2829999999999999</v>
       </c>
       <c r="AN3" s="5">
-        <v>0.025000000000000001</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AO3" s="5">
-        <v>0.062</v>
+        <v>6.2E-2</v>
       </c>
       <c r="AP3" s="5">
-        <v>0.042999999999999997</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="AQ3" s="5">
-        <v>0.031</v>
+        <v>3.1E-2</v>
       </c>
       <c r="AR3">
         <v>7</v>
@@ -1249,7 +1221,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -1329,7 +1301,7 @@
         <v>0.45400000000000001</v>
       </c>
       <c r="AD4" s="3">
-        <v>2.7000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="AE4">
         <v>7</v>
@@ -1338,10 +1310,10 @@
         <v>15.6</v>
       </c>
       <c r="AG4" s="3">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AH4" s="3">
-        <v>5.5999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="AI4" s="3">
         <v>11.6</v>
@@ -1359,25 +1331,25 @@
         <v>2.444</v>
       </c>
       <c r="AN4" s="5">
-        <v>0.024</v>
+        <v>2.4E-2</v>
       </c>
       <c r="AO4" s="5">
-        <v>0.057000000000000002</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="AP4" s="5">
-        <v>0.033000000000000002</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="AQ4" s="5">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="AR4" s="3">
-        <v>11.300000000000001</v>
+        <v>11.3</v>
       </c>
       <c r="AS4">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -1472,7 +1444,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="AI5" s="3">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="AJ5">
         <v>274</v>
@@ -1481,31 +1453,31 @@
         <v>2.3849999999999998</v>
       </c>
       <c r="AL5" s="4">
-        <v>2.3500000000000001</v>
+        <v>2.35</v>
       </c>
       <c r="AM5" s="5">
         <v>2.056</v>
       </c>
       <c r="AN5" s="5">
-        <v>0.042000000000000003</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="AO5" s="5">
-        <v>0.058000000000000003</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="AP5" s="5">
-        <v>0.041000000000000002</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="AQ5" s="4">
-        <v>0.029999999999999999</v>
+        <v>0.03</v>
       </c>
       <c r="AR5" s="3">
-        <v>8.4000000000000004</v>
+        <v>8.4</v>
       </c>
       <c r="AS5" s="3">
-        <v>3.7000000000000002</v>
+        <v>3.7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -1585,22 +1557,22 @@
         <v>0.74099999999999999</v>
       </c>
       <c r="AD6" s="3">
-        <v>9.5999999999999996</v>
+        <v>9.6</v>
       </c>
       <c r="AE6" s="3">
-        <v>7.7000000000000002</v>
+        <v>7.7</v>
       </c>
       <c r="AF6" s="3">
         <v>14.1</v>
       </c>
       <c r="AG6" s="3">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="AH6">
         <v>5</v>
       </c>
       <c r="AI6" s="3">
-        <v>4.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="AJ6">
         <v>242</v>
@@ -1615,25 +1587,25 @@
         <v>1.9750000000000001</v>
       </c>
       <c r="AN6" s="5">
-        <v>0.084000000000000005</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="AO6" s="5">
-        <v>0.067000000000000004</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="AP6" s="5">
-        <v>0.044999999999999998</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="AQ6" s="5">
-        <v>0.035000000000000003</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AR6" s="3">
-        <v>6.7000000000000002</v>
+        <v>6.7</v>
       </c>
       <c r="AS6" s="3">
-        <v>4.2000000000000002</v>
+        <v>4.2</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -1713,13 +1685,13 @@
         <v>0.47299999999999998</v>
       </c>
       <c r="AD7" s="3">
-        <v>7.5999999999999996</v>
+        <v>7.6</v>
       </c>
       <c r="AE7" s="3">
-        <v>6.7999999999999998</v>
+        <v>6.8</v>
       </c>
       <c r="AF7" s="3">
-        <v>13.800000000000001</v>
+        <v>13.8</v>
       </c>
       <c r="AG7" s="3">
         <v>1.1000000000000001</v>
@@ -1728,7 +1700,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="AI7" s="3">
-        <v>5.4000000000000004</v>
+        <v>5.4</v>
       </c>
       <c r="AJ7">
         <v>248</v>
@@ -1737,31 +1709,31 @@
         <v>2.1680000000000001</v>
       </c>
       <c r="AL7" s="4">
-        <v>2.1400000000000001</v>
+        <v>2.14</v>
       </c>
       <c r="AM7" s="4">
         <v>1.96</v>
       </c>
       <c r="AN7" s="5">
-        <v>0.034000000000000002</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="AO7" s="5">
-        <v>0.058000000000000003</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="AP7" s="5">
-        <v>0.039</v>
+        <v>3.9E-2</v>
       </c>
       <c r="AQ7" s="5">
-        <v>0.029000000000000001</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="AR7" s="3">
-        <v>2.7999999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="AS7" s="3">
-        <v>4.2000000000000002</v>
+        <v>4.2</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -1844,7 +1816,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="AE8" s="3">
-        <v>7.0999999999999996</v>
+        <v>7.1</v>
       </c>
       <c r="AF8">
         <v>14</v>
@@ -1853,10 +1825,10 @@
         <v>1.3</v>
       </c>
       <c r="AH8" s="3">
-        <v>5.2000000000000002</v>
+        <v>5.2</v>
       </c>
       <c r="AI8" s="3">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="AJ8">
         <v>254</v>
@@ -1871,25 +1843,25 @@
         <v>1.873</v>
       </c>
       <c r="AN8" s="5">
-        <v>0.058999999999999997</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="AO8" s="5">
-        <v>0.058999999999999997</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="AP8" s="5">
-        <v>0.042000000000000003</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="AQ8" s="5">
-        <v>0.031</v>
+        <v>3.1E-2</v>
       </c>
       <c r="AR8" s="3">
-        <v>2.7000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="AS8" s="3">
-        <v>3.7000000000000002</v>
+        <v>3.7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -1966,25 +1938,25 @@
         <v>91</v>
       </c>
       <c r="AC9" s="4">
-        <v>1.6100000000000001</v>
+        <v>1.61</v>
       </c>
       <c r="AD9" s="3">
-        <v>11.800000000000001</v>
+        <v>11.8</v>
       </c>
       <c r="AE9" s="3">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="AF9" s="3">
-        <v>11.300000000000001</v>
+        <v>11.3</v>
       </c>
       <c r="AG9" s="3">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="AH9" s="3">
-        <v>5.9000000000000004</v>
+        <v>5.9</v>
       </c>
       <c r="AI9" s="3">
-        <v>7.5999999999999996</v>
+        <v>7.6</v>
       </c>
       <c r="AJ9">
         <v>243</v>
@@ -1999,25 +1971,25 @@
         <v>1.3520000000000001</v>
       </c>
       <c r="AN9" s="5">
-        <v>0.035999999999999997</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="AO9" s="5">
-        <v>0.064000000000000001</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="AP9" s="5">
-        <v>0.039</v>
+        <v>3.9E-2</v>
       </c>
       <c r="AQ9" s="5">
-        <v>0.028000000000000001</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AR9" s="3">
-        <v>8.4000000000000004</v>
+        <v>8.4</v>
       </c>
       <c r="AS9" s="3">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -2100,19 +2072,19 @@
         <v>17</v>
       </c>
       <c r="AE10" s="3">
-        <v>8.4000000000000004</v>
+        <v>8.4</v>
       </c>
       <c r="AF10" s="3">
         <v>13.4</v>
       </c>
       <c r="AG10" s="3">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="AH10" s="3">
-        <v>6.2999999999999998</v>
+        <v>6.3</v>
       </c>
       <c r="AI10" s="3">
-        <v>9.5999999999999996</v>
+        <v>9.6</v>
       </c>
       <c r="AJ10">
         <v>240</v>
@@ -2127,25 +2099,25 @@
         <v>1.131</v>
       </c>
       <c r="AN10" s="5">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AO10" s="5">
-        <v>0.076999999999999999</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="AP10" s="5">
-        <v>0.047</v>
+        <v>4.7E-2</v>
       </c>
       <c r="AQ10" s="5">
-        <v>0.034000000000000002</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="AR10">
         <v>17</v>
       </c>
       <c r="AS10" s="3">
-        <v>5.4000000000000004</v>
+        <v>5.4</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -2228,7 +2200,7 @@
         <v>14.1</v>
       </c>
       <c r="AE11" s="3">
-        <v>7.9000000000000004</v>
+        <v>7.9</v>
       </c>
       <c r="AF11" s="3">
         <v>14.9</v>
@@ -2237,7 +2209,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AH11" s="3">
-        <v>6.7999999999999998</v>
+        <v>6.8</v>
       </c>
       <c r="AI11">
         <v>6</v>
@@ -2246,7 +2218,7 @@
         <v>260</v>
       </c>
       <c r="AK11" s="4">
-        <v>1.6100000000000001</v>
+        <v>1.61</v>
       </c>
       <c r="AL11" s="5">
         <v>1.4750000000000001</v>
@@ -2255,25 +2227,25 @@
         <v>1.27</v>
       </c>
       <c r="AN11" s="5">
-        <v>0.012999999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AO11" s="4">
-        <v>0.089999999999999997</v>
+        <v>0.09</v>
       </c>
       <c r="AP11" s="5">
-        <v>0.057000000000000002</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="AQ11" s="5">
-        <v>0.045999999999999999</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="AR11" s="3">
-        <v>24.800000000000001</v>
+        <v>24.8</v>
       </c>
       <c r="AS11" s="3">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -2353,7 +2325,7 @@
         <v>0.33400000000000002</v>
       </c>
       <c r="AD12" s="3">
-        <v>13.699999999999999</v>
+        <v>13.7</v>
       </c>
       <c r="AE12">
         <v>8</v>
@@ -2362,10 +2334,10 @@
         <v>14.1</v>
       </c>
       <c r="AG12" s="3">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AH12" s="3">
-        <v>8.5999999999999996</v>
+        <v>8.6</v>
       </c>
       <c r="AI12" s="3">
         <v>9.6999999999999993</v>
@@ -2383,25 +2355,25 @@
         <v>0.75900000000000001</v>
       </c>
       <c r="AN12" s="5">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AO12" s="5">
         <v>0.10100000000000001</v>
       </c>
       <c r="AP12" s="5">
-        <v>0.042000000000000003</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="AQ12" s="5">
-        <v>0.024</v>
+        <v>2.4E-2</v>
       </c>
       <c r="AR12" s="3">
-        <v>29.399999999999999</v>
+        <v>29.4</v>
       </c>
       <c r="AS12" s="3">
-        <v>5.7000000000000002</v>
+        <v>5.7</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>99</v>
       </c>
@@ -2487,13 +2459,13 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="AF13" s="3">
-        <v>16.300000000000001</v>
+        <v>16.3</v>
       </c>
       <c r="AG13" s="3">
-        <v>2.7999999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="AH13" s="3">
-        <v>8.5999999999999996</v>
+        <v>8.6</v>
       </c>
       <c r="AI13">
         <v>8</v>
@@ -2511,25 +2483,25 @@
         <v>0.58299999999999996</v>
       </c>
       <c r="AN13" s="5">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AO13" s="5">
-        <v>0.097000000000000003</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="AP13" s="4">
-        <v>0.040000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="AQ13" s="5">
-        <v>0.021999999999999999</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="AR13" s="3">
-        <v>26.600000000000001</v>
+        <v>26.6</v>
       </c>
       <c r="AS13" s="3">
         <v>5.5</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -2609,22 +2581,22 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="AD14" s="3">
-        <v>14.199999999999999</v>
+        <v>14.2</v>
       </c>
       <c r="AE14" s="3">
-        <v>6.5999999999999996</v>
+        <v>6.6</v>
       </c>
       <c r="AF14" s="3">
         <v>12.1</v>
       </c>
       <c r="AG14" s="3">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="AH14" s="3">
-        <v>7.4000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="AI14" s="3">
-        <v>6.2999999999999998</v>
+        <v>6.3</v>
       </c>
       <c r="AJ14">
         <v>219</v>
@@ -2639,25 +2611,25 @@
         <v>1.3009999999999999</v>
       </c>
       <c r="AN14" s="5">
-        <v>0.014999999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AO14" s="5">
-        <v>0.094</v>
+        <v>9.4E-2</v>
       </c>
       <c r="AP14" s="5">
-        <v>0.058000000000000003</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="AQ14" s="5">
-        <v>0.042000000000000003</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="AR14" s="3">
         <v>12.6</v>
       </c>
       <c r="AS14" s="3">
-        <v>5.2000000000000002</v>
+        <v>5.2</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -2740,19 +2712,19 @@
         <v>16.399999999999999</v>
       </c>
       <c r="AE15" s="3">
-        <v>7.9000000000000004</v>
+        <v>7.9</v>
       </c>
       <c r="AF15" s="3">
         <v>13.5</v>
       </c>
       <c r="AG15" s="3">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="AH15">
         <v>8</v>
       </c>
       <c r="AI15" s="3">
-        <v>12.800000000000001</v>
+        <v>12.8</v>
       </c>
       <c r="AJ15">
         <v>235</v>
@@ -2767,25 +2739,25 @@
         <v>0.68899999999999995</v>
       </c>
       <c r="AN15" s="5">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AO15" s="4">
-        <v>0.080000000000000002</v>
+        <v>0.08</v>
       </c>
       <c r="AP15" s="5">
-        <v>0.065000000000000002</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AQ15" s="5">
-        <v>0.045999999999999999</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="AR15" s="3">
-        <v>18.199999999999999</v>
+        <v>18.2</v>
       </c>
       <c r="AS15" s="3">
-        <v>5.4000000000000004</v>
+        <v>5.4</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -2865,7 +2837,7 @@
         <v>0.68600000000000005</v>
       </c>
       <c r="AD16" s="3">
-        <v>21.800000000000001</v>
+        <v>21.8</v>
       </c>
       <c r="AE16" s="3">
         <v>7.5</v>
@@ -2877,7 +2849,7 @@
         <v>3</v>
       </c>
       <c r="AH16" s="3">
-        <v>8.4000000000000004</v>
+        <v>8.4</v>
       </c>
       <c r="AI16" s="3">
         <v>10.5</v>
@@ -2895,25 +2867,25 @@
         <v>0.72899999999999998</v>
       </c>
       <c r="AN16" s="5">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="AO16" s="5">
-        <v>0.092999999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="AP16" s="5">
-        <v>0.062</v>
+        <v>6.2E-2</v>
       </c>
       <c r="AQ16" s="4">
-        <v>0.040000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="AR16" s="3">
         <v>16.600000000000001</v>
       </c>
       <c r="AS16" s="3">
-        <v>5.7000000000000002</v>
+        <v>5.7</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>108</v>
       </c>
@@ -2993,10 +2965,10 @@
         <v>0.92800000000000005</v>
       </c>
       <c r="AD17" s="3">
-        <v>20.199999999999999</v>
+        <v>20.2</v>
       </c>
       <c r="AE17" s="3">
-        <v>7.2000000000000002</v>
+        <v>7.2</v>
       </c>
       <c r="AF17" s="3">
         <v>11.1</v>
@@ -3005,7 +2977,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AH17" s="3">
-        <v>8.5999999999999996</v>
+        <v>8.6</v>
       </c>
       <c r="AI17" s="3">
         <v>19.5</v>
@@ -3029,19 +3001,19 @@
         <v>0.11</v>
       </c>
       <c r="AP17" s="5">
-        <v>0.071999999999999995</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="AQ17" s="5">
-        <v>0.048000000000000001</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="AR17" s="3">
         <v>10.9</v>
       </c>
       <c r="AS17" s="3">
-        <v>6.0999999999999996</v>
+        <v>6.1</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>110</v>
       </c>
@@ -3124,19 +3096,19 @@
         <v>18.600000000000001</v>
       </c>
       <c r="AE18" s="3">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="AF18" s="3">
-        <v>9.9000000000000004</v>
+        <v>9.9</v>
       </c>
       <c r="AG18" s="3">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="AH18" s="3">
         <v>9.1999999999999993</v>
       </c>
       <c r="AI18" s="3">
-        <v>28.600000000000001</v>
+        <v>28.6</v>
       </c>
       <c r="AJ18">
         <v>201</v>
@@ -3157,19 +3129,19 @@
         <v>0.127</v>
       </c>
       <c r="AP18" s="5">
-        <v>0.065000000000000002</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AQ18" s="5">
-        <v>0.043999999999999997</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="AR18" s="3">
-        <v>9.4000000000000004</v>
+        <v>9.4</v>
       </c>
       <c r="AS18" s="3">
-        <v>6.2999999999999998</v>
+        <v>6.3</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>112</v>
       </c>
@@ -3249,10 +3221,10 @@
         <v>1.492</v>
       </c>
       <c r="AD19" s="3">
-        <v>21.100000000000001</v>
+        <v>21.1</v>
       </c>
       <c r="AE19" s="3">
-        <v>7.0999999999999996</v>
+        <v>7.1</v>
       </c>
       <c r="AF19" s="3">
         <v>8.1999999999999993</v>
@@ -3264,7 +3236,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="AI19" s="3">
-        <v>27.600000000000001</v>
+        <v>27.6</v>
       </c>
       <c r="AJ19">
         <v>215</v>
@@ -3285,1296 +3257,20 @@
         <v>0.159</v>
       </c>
       <c r="AP19" s="5">
-        <v>0.086999999999999994</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="AQ19" s="5">
-        <v>0.068000000000000005</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="AR19" s="3">
-        <v>7.2999999999999998</v>
+        <v>7.3</v>
       </c>
       <c r="AS19">
         <v>7</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="2">
-        <v>34.992221999999998</v>
-      </c>
-      <c r="F20" s="2">
-        <v>126.705277</v>
-      </c>
-      <c r="G20" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" t="s">
-        <v>67</v>
-      </c>
-      <c r="L20" t="s">
-        <v>66</v>
-      </c>
-      <c r="M20" t="s">
-        <v>67</v>
-      </c>
-      <c r="N20" t="s">
-        <v>68</v>
-      </c>
-      <c r="O20" t="s">
-        <v>69</v>
-      </c>
-      <c r="P20" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>71</v>
-      </c>
-      <c r="R20" t="s">
-        <v>72</v>
-      </c>
-      <c r="S20" t="s">
-        <v>73</v>
-      </c>
-      <c r="T20" t="s">
-        <v>74</v>
-      </c>
-      <c r="U20" t="s">
-        <v>74</v>
-      </c>
-      <c r="V20" t="s">
-        <v>68</v>
-      </c>
-      <c r="W20" t="s">
-        <v>69</v>
-      </c>
-      <c r="X20" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC20" s="5">
-        <v>1.736</v>
-      </c>
-      <c r="AD20" s="3">
-        <v>22.600000000000001</v>
-      </c>
-      <c r="AE20" s="3">
-        <v>6.7999999999999998</v>
-      </c>
-      <c r="AF20" s="3">
-        <v>8.4000000000000004</v>
-      </c>
-      <c r="AG20" s="3">
-        <v>3.7000000000000002</v>
-      </c>
-      <c r="AH20" s="3">
-        <v>10.800000000000001</v>
-      </c>
-      <c r="AI20" s="3">
-        <v>26.600000000000001</v>
-      </c>
-      <c r="AJ20">
-        <v>239</v>
-      </c>
-      <c r="AK20" s="5">
-        <v>2.1070000000000002</v>
-      </c>
-      <c r="AL20" s="5">
-        <v>1.9670000000000001</v>
-      </c>
-      <c r="AM20" s="5">
-        <v>0.95599999999999996</v>
-      </c>
-      <c r="AN20" s="5">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="AO20" s="5">
-        <v>0.158</v>
-      </c>
-      <c r="AP20" s="5">
-        <v>0.095000000000000001</v>
-      </c>
-      <c r="AQ20" s="5">
-        <v>0.075999999999999998</v>
-      </c>
-      <c r="AR20" s="3">
-        <v>8.9000000000000004</v>
-      </c>
-      <c r="AS20" s="3">
-        <v>7.9000000000000004</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="2">
-        <v>34.992221999999998</v>
-      </c>
-      <c r="F21" s="2">
-        <v>126.705277</v>
-      </c>
-      <c r="G21" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" t="s">
-        <v>67</v>
-      </c>
-      <c r="L21" t="s">
-        <v>66</v>
-      </c>
-      <c r="M21" t="s">
-        <v>67</v>
-      </c>
-      <c r="N21" t="s">
-        <v>68</v>
-      </c>
-      <c r="O21" t="s">
-        <v>69</v>
-      </c>
-      <c r="P21" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>71</v>
-      </c>
-      <c r="R21" t="s">
-        <v>72</v>
-      </c>
-      <c r="S21" t="s">
-        <v>73</v>
-      </c>
-      <c r="T21" t="s">
-        <v>74</v>
-      </c>
-      <c r="U21" t="s">
-        <v>74</v>
-      </c>
-      <c r="V21" t="s">
-        <v>68</v>
-      </c>
-      <c r="W21" t="s">
-        <v>69</v>
-      </c>
-      <c r="X21" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC21" s="5">
-        <v>1.6739999999999999</v>
-      </c>
-      <c r="AD21" s="3">
-        <v>27.5</v>
-      </c>
-      <c r="AE21" s="3">
-        <v>7.2999999999999998</v>
-      </c>
-      <c r="AF21" s="3">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AG21" s="3">
-        <v>3.2000000000000002</v>
-      </c>
-      <c r="AH21" s="3">
-        <v>13.6</v>
-      </c>
-      <c r="AI21" s="3">
-        <v>16.800000000000001</v>
-      </c>
-      <c r="AJ21">
-        <v>235</v>
-      </c>
-      <c r="AK21" s="5">
-        <v>1.944</v>
-      </c>
-      <c r="AL21" s="5">
-        <v>1.8839999999999999</v>
-      </c>
-      <c r="AM21" s="5">
-        <v>0.77400000000000002</v>
-      </c>
-      <c r="AN21" s="5">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="AO21" s="4">
-        <v>0.16</v>
-      </c>
-      <c r="AP21" s="5">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="AQ21" s="5">
-        <v>0.092999999999999999</v>
-      </c>
-      <c r="AR21" s="3">
-        <v>7.9000000000000004</v>
-      </c>
-      <c r="AS21" s="3">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>118</v>
-      </c>
-      <c r="B22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="2">
-        <v>34.992221999999998</v>
-      </c>
-      <c r="F22" s="2">
-        <v>126.705277</v>
-      </c>
-      <c r="G22" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" t="s">
-        <v>67</v>
-      </c>
-      <c r="L22" t="s">
-        <v>66</v>
-      </c>
-      <c r="M22" t="s">
-        <v>67</v>
-      </c>
-      <c r="N22" t="s">
-        <v>68</v>
-      </c>
-      <c r="O22" t="s">
-        <v>69</v>
-      </c>
-      <c r="P22" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>71</v>
-      </c>
-      <c r="R22" t="s">
-        <v>72</v>
-      </c>
-      <c r="S22" t="s">
-        <v>73</v>
-      </c>
-      <c r="T22" t="s">
-        <v>74</v>
-      </c>
-      <c r="U22" t="s">
-        <v>74</v>
-      </c>
-      <c r="V22" t="s">
-        <v>68</v>
-      </c>
-      <c r="W22" t="s">
-        <v>69</v>
-      </c>
-      <c r="X22" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC22" s="5">
-        <v>2.0569999999999999</v>
-      </c>
-      <c r="AD22">
-        <v>25</v>
-      </c>
-      <c r="AE22" s="3">
-        <v>7.0999999999999996</v>
-      </c>
-      <c r="AF22" s="3">
-        <v>7.2999999999999998</v>
-      </c>
-      <c r="AG22" s="3">
-        <v>2.7999999999999998</v>
-      </c>
-      <c r="AH22" s="3">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="AI22" s="3">
-        <v>25.699999999999999</v>
-      </c>
-      <c r="AJ22">
-        <v>239</v>
-      </c>
-      <c r="AK22" s="5">
-        <v>2.9740000000000002</v>
-      </c>
-      <c r="AL22" s="5">
-        <v>2.8839999999999999</v>
-      </c>
-      <c r="AM22" s="5">
-        <v>1.9630000000000001</v>
-      </c>
-      <c r="AN22" s="5">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="AO22" s="5">
-        <v>0.151</v>
-      </c>
-      <c r="AP22" s="5">
-        <v>0.105</v>
-      </c>
-      <c r="AQ22" s="5">
-        <v>0.085000000000000006</v>
-      </c>
-      <c r="AR22">
-        <v>3</v>
-      </c>
-      <c r="AS22" s="3">
-        <v>6.9000000000000004</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>120</v>
-      </c>
-      <c r="B23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="2">
-        <v>34.992221999999998</v>
-      </c>
-      <c r="F23" s="2">
-        <v>126.705277</v>
-      </c>
-      <c r="G23" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" t="s">
-        <v>67</v>
-      </c>
-      <c r="L23" t="s">
-        <v>66</v>
-      </c>
-      <c r="M23" t="s">
-        <v>67</v>
-      </c>
-      <c r="N23" t="s">
-        <v>68</v>
-      </c>
-      <c r="O23" t="s">
-        <v>69</v>
-      </c>
-      <c r="P23" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>71</v>
-      </c>
-      <c r="R23" t="s">
-        <v>72</v>
-      </c>
-      <c r="S23" t="s">
-        <v>73</v>
-      </c>
-      <c r="T23" t="s">
-        <v>74</v>
-      </c>
-      <c r="U23" t="s">
-        <v>74</v>
-      </c>
-      <c r="V23" t="s">
-        <v>68</v>
-      </c>
-      <c r="W23" t="s">
-        <v>69</v>
-      </c>
-      <c r="X23" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC23" s="5">
-        <v>2.0569999999999999</v>
-      </c>
-      <c r="AD23" s="3">
-        <v>26.300000000000001</v>
-      </c>
-      <c r="AE23" s="3">
-        <v>7.2000000000000002</v>
-      </c>
-      <c r="AF23" s="3">
-        <v>7.7000000000000002</v>
-      </c>
-      <c r="AG23" s="3">
-        <v>1.6000000000000001</v>
-      </c>
-      <c r="AH23" s="3">
-        <v>7.7000000000000002</v>
-      </c>
-      <c r="AI23" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="AJ23">
-        <v>255</v>
-      </c>
-      <c r="AK23" s="4">
-        <v>2.6899999999999999</v>
-      </c>
-      <c r="AL23" s="5">
-        <v>2.6829999999999998</v>
-      </c>
-      <c r="AM23" s="5">
-        <v>1.915</v>
-      </c>
-      <c r="AN23" s="5">
-        <v>0.183</v>
-      </c>
-      <c r="AO23" s="5">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="AP23" s="4">
-        <v>0.20999999999999999</v>
-      </c>
-      <c r="AQ23" s="5">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="AR23" s="3">
-        <v>5.7000000000000002</v>
-      </c>
-      <c r="AS23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="2">
-        <v>34.992221999999998</v>
-      </c>
-      <c r="F24" s="2">
-        <v>126.705277</v>
-      </c>
-      <c r="G24" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" t="s">
-        <v>67</v>
-      </c>
-      <c r="L24" t="s">
-        <v>66</v>
-      </c>
-      <c r="M24" t="s">
-        <v>67</v>
-      </c>
-      <c r="N24" t="s">
-        <v>68</v>
-      </c>
-      <c r="O24" t="s">
-        <v>69</v>
-      </c>
-      <c r="P24" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>71</v>
-      </c>
-      <c r="R24" t="s">
-        <v>72</v>
-      </c>
-      <c r="S24" t="s">
-        <v>73</v>
-      </c>
-      <c r="T24" t="s">
-        <v>74</v>
-      </c>
-      <c r="U24" t="s">
-        <v>74</v>
-      </c>
-      <c r="V24" t="s">
-        <v>68</v>
-      </c>
-      <c r="W24" t="s">
-        <v>69</v>
-      </c>
-      <c r="X24" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD24" s="3">
-        <v>25.399999999999999</v>
-      </c>
-      <c r="AE24" s="3">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AF24">
-        <v>8</v>
-      </c>
-      <c r="AG24" s="3">
-        <v>1.6000000000000001</v>
-      </c>
-      <c r="AH24" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="AI24" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AJ24">
-        <v>194</v>
-      </c>
-      <c r="AK24" s="5">
-        <v>3.1389999999999998</v>
-      </c>
-      <c r="AL24" s="5">
-        <v>3.0459999999999998</v>
-      </c>
-      <c r="AM24" s="5">
-        <v>2.8039999999999998</v>
-      </c>
-      <c r="AN24" s="5">
-        <v>0.094</v>
-      </c>
-      <c r="AO24" s="5">
-        <v>0.099000000000000005</v>
-      </c>
-      <c r="AP24" s="5">
-        <v>0.071999999999999995</v>
-      </c>
-      <c r="AQ24" s="4">
-        <v>0.059999999999999998</v>
-      </c>
-      <c r="AR24" s="3">
-        <v>5.2000000000000002</v>
-      </c>
-      <c r="AS24" s="3">
-        <v>3.7000000000000002</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>124</v>
-      </c>
-      <c r="B25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="2">
-        <v>34.992221999999998</v>
-      </c>
-      <c r="F25" s="2">
-        <v>126.705277</v>
-      </c>
-      <c r="G25" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" t="s">
-        <v>67</v>
-      </c>
-      <c r="L25" t="s">
-        <v>66</v>
-      </c>
-      <c r="M25" t="s">
-        <v>67</v>
-      </c>
-      <c r="N25" t="s">
-        <v>68</v>
-      </c>
-      <c r="O25" t="s">
-        <v>69</v>
-      </c>
-      <c r="P25" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>71</v>
-      </c>
-      <c r="R25" t="s">
-        <v>72</v>
-      </c>
-      <c r="S25" t="s">
-        <v>73</v>
-      </c>
-      <c r="T25" t="s">
-        <v>74</v>
-      </c>
-      <c r="U25" t="s">
-        <v>74</v>
-      </c>
-      <c r="V25" t="s">
-        <v>68</v>
-      </c>
-      <c r="W25" t="s">
-        <v>69</v>
-      </c>
-      <c r="X25" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC25" s="5">
-        <v>2.4039999999999999</v>
-      </c>
-      <c r="AD25" s="3">
-        <v>29.800000000000001</v>
-      </c>
-      <c r="AE25">
-        <v>8</v>
-      </c>
-      <c r="AF25">
-        <v>10</v>
-      </c>
-      <c r="AG25" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AH25" s="3">
-        <v>7.2999999999999998</v>
-      </c>
-      <c r="AI25" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="AJ25">
-        <v>209</v>
-      </c>
-      <c r="AK25" s="4">
-        <v>1.4099999999999999</v>
-      </c>
-      <c r="AL25" s="5">
-        <v>1.4059999999999999</v>
-      </c>
-      <c r="AM25" s="5">
-        <v>0.88200000000000001</v>
-      </c>
-      <c r="AN25" s="5">
-        <v>0.012</v>
-      </c>
-      <c r="AO25" s="5">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="AP25" s="5">
-        <v>0.159</v>
-      </c>
-      <c r="AQ25" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AR25" s="3">
-        <v>22.899999999999999</v>
-      </c>
-      <c r="AS25" s="3">
-        <v>5.4000000000000004</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>126</v>
-      </c>
-      <c r="B26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="2">
-        <v>34.992221999999998</v>
-      </c>
-      <c r="F26" s="2">
-        <v>126.705277</v>
-      </c>
-      <c r="G26" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" t="s">
-        <v>67</v>
-      </c>
-      <c r="L26" t="s">
-        <v>66</v>
-      </c>
-      <c r="M26" t="s">
-        <v>67</v>
-      </c>
-      <c r="N26" t="s">
-        <v>68</v>
-      </c>
-      <c r="O26" t="s">
-        <v>69</v>
-      </c>
-      <c r="P26" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>71</v>
-      </c>
-      <c r="R26" t="s">
-        <v>72</v>
-      </c>
-      <c r="S26" t="s">
-        <v>73</v>
-      </c>
-      <c r="T26" t="s">
-        <v>74</v>
-      </c>
-      <c r="U26" t="s">
-        <v>74</v>
-      </c>
-      <c r="V26" t="s">
-        <v>68</v>
-      </c>
-      <c r="W26" t="s">
-        <v>69</v>
-      </c>
-      <c r="X26" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC26" s="5">
-        <v>7.4569999999999999</v>
-      </c>
-      <c r="AD26" s="3">
-        <v>24.699999999999999</v>
-      </c>
-      <c r="AE26" s="3">
-        <v>6.9000000000000004</v>
-      </c>
-      <c r="AF26" s="3">
-        <v>8.4000000000000004</v>
-      </c>
-      <c r="AG26" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AH26" s="3">
-        <v>6.4000000000000004</v>
-      </c>
-      <c r="AI26" s="3">
-        <v>31.300000000000001</v>
-      </c>
-      <c r="AJ26">
-        <v>144</v>
-      </c>
-      <c r="AK26" s="5">
-        <v>2.1680000000000001</v>
-      </c>
-      <c r="AL26" s="5">
-        <v>2.145</v>
-      </c>
-      <c r="AM26" s="4">
-        <v>1.6799999999999999</v>
-      </c>
-      <c r="AN26" s="5">
-        <v>0.066000000000000003</v>
-      </c>
-      <c r="AO26" s="5">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="AP26" s="5">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="AQ26" s="5">
-        <v>0.088999999999999996</v>
-      </c>
-      <c r="AR26" s="3">
-        <v>5.7000000000000002</v>
-      </c>
-      <c r="AS26" s="3">
-        <v>4.2000000000000002</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>128</v>
-      </c>
-      <c r="B27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="2">
-        <v>34.992221999999998</v>
-      </c>
-      <c r="F27" s="2">
-        <v>126.705277</v>
-      </c>
-      <c r="G27" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" t="s">
-        <v>67</v>
-      </c>
-      <c r="L27" t="s">
-        <v>66</v>
-      </c>
-      <c r="M27" t="s">
-        <v>67</v>
-      </c>
-      <c r="N27" t="s">
-        <v>68</v>
-      </c>
-      <c r="O27" t="s">
-        <v>69</v>
-      </c>
-      <c r="P27" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>71</v>
-      </c>
-      <c r="R27" t="s">
-        <v>72</v>
-      </c>
-      <c r="S27" t="s">
-        <v>73</v>
-      </c>
-      <c r="T27" t="s">
-        <v>74</v>
-      </c>
-      <c r="U27" t="s">
-        <v>74</v>
-      </c>
-      <c r="V27" t="s">
-        <v>68</v>
-      </c>
-      <c r="W27" t="s">
-        <v>69</v>
-      </c>
-      <c r="X27" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC27" s="5">
-        <v>7.7130000000000001</v>
-      </c>
-      <c r="AD27" s="3">
-        <v>23.399999999999999</v>
-      </c>
-      <c r="AE27" s="3">
-        <v>6.7000000000000002</v>
-      </c>
-      <c r="AF27" s="3">
-        <v>7.2999999999999998</v>
-      </c>
-      <c r="AG27" s="3">
-        <v>1.3999999999999999</v>
-      </c>
-      <c r="AH27" s="3">
-        <v>7.0999999999999996</v>
-      </c>
-      <c r="AI27" s="3">
-        <v>46.200000000000003</v>
-      </c>
-      <c r="AJ27">
-        <v>145</v>
-      </c>
-      <c r="AK27" s="5">
-        <v>2.141</v>
-      </c>
-      <c r="AL27" s="5">
-        <v>2.1339999999999999</v>
-      </c>
-      <c r="AM27" s="5">
-        <v>1.579</v>
-      </c>
-      <c r="AN27" s="5">
-        <v>0.063</v>
-      </c>
-      <c r="AO27" s="5">
-        <v>0.193</v>
-      </c>
-      <c r="AP27" s="5">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="AQ27" s="5">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="AR27">
-        <v>4</v>
-      </c>
-      <c r="AS27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>130</v>
-      </c>
-      <c r="B28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="2">
-        <v>34.992221999999998</v>
-      </c>
-      <c r="F28" s="2">
-        <v>126.705277</v>
-      </c>
-      <c r="G28" t="s">
-        <v>66</v>
-      </c>
-      <c r="H28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L28" t="s">
-        <v>66</v>
-      </c>
-      <c r="M28" t="s">
-        <v>67</v>
-      </c>
-      <c r="N28" t="s">
-        <v>68</v>
-      </c>
-      <c r="O28" t="s">
-        <v>69</v>
-      </c>
-      <c r="P28" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>71</v>
-      </c>
-      <c r="R28" t="s">
-        <v>72</v>
-      </c>
-      <c r="S28" t="s">
-        <v>73</v>
-      </c>
-      <c r="T28" t="s">
-        <v>74</v>
-      </c>
-      <c r="U28" t="s">
-        <v>74</v>
-      </c>
-      <c r="V28" t="s">
-        <v>68</v>
-      </c>
-      <c r="W28" t="s">
-        <v>69</v>
-      </c>
-      <c r="X28" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC28" s="5">
-        <v>3.431</v>
-      </c>
-      <c r="AD28" s="3">
-        <v>24.100000000000001</v>
-      </c>
-      <c r="AE28" s="3">
-        <v>7.0999999999999996</v>
-      </c>
-      <c r="AF28" s="3">
-        <v>8.5999999999999996</v>
-      </c>
-      <c r="AG28">
-        <v>1</v>
-      </c>
-      <c r="AH28" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="AI28" s="3">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="AJ28">
-        <v>210</v>
-      </c>
-      <c r="AK28" s="4">
-        <v>2.1899999999999999</v>
-      </c>
-      <c r="AL28" s="5">
-        <v>2.1429999999999998</v>
-      </c>
-      <c r="AM28" s="5">
-        <v>1.698</v>
-      </c>
-      <c r="AN28" s="5">
-        <v>0.065000000000000002</v>
-      </c>
-      <c r="AO28" s="5">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="AP28" s="5">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="AQ28" s="3">
-        <v>0.10000000000000001</v>
-      </c>
-      <c r="AR28" s="3">
-        <v>5.2000000000000002</v>
-      </c>
-      <c r="AS28" s="3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="2">
-        <v>34.992221999999998</v>
-      </c>
-      <c r="F29" s="2">
-        <v>126.705277</v>
-      </c>
-      <c r="G29" t="s">
-        <v>66</v>
-      </c>
-      <c r="H29" t="s">
-        <v>67</v>
-      </c>
-      <c r="L29" t="s">
-        <v>66</v>
-      </c>
-      <c r="M29" t="s">
-        <v>67</v>
-      </c>
-      <c r="N29" t="s">
-        <v>68</v>
-      </c>
-      <c r="O29" t="s">
-        <v>69</v>
-      </c>
-      <c r="P29" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>71</v>
-      </c>
-      <c r="R29" t="s">
-        <v>72</v>
-      </c>
-      <c r="S29" t="s">
-        <v>73</v>
-      </c>
-      <c r="T29" t="s">
-        <v>74</v>
-      </c>
-      <c r="U29" t="s">
-        <v>74</v>
-      </c>
-      <c r="V29" t="s">
-        <v>68</v>
-      </c>
-      <c r="W29" t="s">
-        <v>69</v>
-      </c>
-      <c r="X29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC29" s="5">
-        <v>2.093</v>
-      </c>
-      <c r="AD29" s="3">
-        <v>21.199999999999999</v>
-      </c>
-      <c r="AE29" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="AF29" s="3">
-        <v>10.300000000000001</v>
-      </c>
-      <c r="AG29" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="AH29" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AI29" s="3">
-        <v>4.2000000000000002</v>
-      </c>
-      <c r="AJ29">
-        <v>259</v>
-      </c>
-      <c r="AK29" s="5">
-        <v>2.1320000000000001</v>
-      </c>
-      <c r="AL29" s="5">
-        <v>2.109</v>
-      </c>
-      <c r="AM29" s="5">
-        <v>1.6839999999999999</v>
-      </c>
-      <c r="AN29" s="5">
-        <v>0.052999999999999999</v>
-      </c>
-      <c r="AO29" s="5">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="AP29" s="5">
-        <v>0.113</v>
-      </c>
-      <c r="AQ29" s="5">
-        <v>0.105</v>
-      </c>
-      <c r="AR29" s="3">
-        <v>8.5999999999999996</v>
-      </c>
-      <c r="AS29" s="3">
-        <v>2.8999999999999999</v>
-      </c>
-    </row>
-    <row r="30"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>